--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>859492.3976336396</v>
+        <v>857567.7940667816</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="F2" t="n">
-        <v>276.1565137023555</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>37.4268167426368</v>
+        <v>166.4457214267534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>147.3452674905975</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>169.8119418628785</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,22 +786,22 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>175.1311939478778</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -911,10 +911,10 @@
         <v>14.93452779272217</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>335.7038742961063</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>196.2804842470834</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>42.11629363130555</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3161961300435</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>89.20038968829469</v>
       </c>
       <c r="W5" t="n">
-        <v>341.8733101690332</v>
+        <v>341.8733101690334</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>341.8733101690334</v>
       </c>
       <c r="Y5" t="n">
-        <v>341.8733101690332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>91.54900817467417</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>87.92595927923669</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>168.0238047511339</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.3706418758996</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9284209250621</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>92.53896357027274</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>64.28136179030206</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>3.080181780086132</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>247.1935237523257</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>34.50046002839182</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>31.47257827775241</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,28 +1291,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>144.4120465207997</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>112.2638403784904</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>142.7834207791497</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,13 +1579,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>169.7438101404423</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896923</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,10 +1774,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,22 +1813,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>216.4561158141385</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U19" t="n">
-        <v>26.97444673954897</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>211.2541671901473</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>27.26009267756174</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>105.7410395632862</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>161.430894639085</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>130.21438747536</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>128.0328771037168</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>92.01815992141965</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>69.19891058486161</v>
+        <v>179.5197244407509</v>
       </c>
       <c r="T25" t="n">
         <v>203.1464755155369</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>267.8362668557251</v>
       </c>
       <c r="V25" t="n">
         <v>233.7365577809757</v>
       </c>
       <c r="W25" t="n">
-        <v>268.1219127937387</v>
+        <v>78.79936194353563</v>
       </c>
       <c r="X25" t="n">
         <v>207.3085698461848</v>
       </c>
       <c r="Y25" t="n">
-        <v>200.1835678092424</v>
+        <v>200.1835678092425</v>
       </c>
     </row>
     <row r="26">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>161.430894639085</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>148.8457355557755</v>
@@ -2719,16 +2719,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>128.0328771037168</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>113.0046474032936</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>148.0924829205252</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>130.5127428246838</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>179.5197244407509</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>203.1464755155369</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>267.8362668557251</v>
       </c>
       <c r="V28" t="n">
         <v>233.7365577809757</v>
       </c>
       <c r="W28" t="n">
-        <v>268.1219127937387</v>
+        <v>91.38452102684543</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>207.3085698461848</v>
       </c>
       <c r="Y28" t="n">
-        <v>200.1835678092424</v>
+        <v>200.1835678092425</v>
       </c>
     </row>
     <row r="29">
@@ -2950,13 +2950,13 @@
         <v>161.430894639085</v>
       </c>
       <c r="C31" t="n">
-        <v>148.8457355557755</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>130.21438747536</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>128.0328771037168</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>179.5197244407509</v>
       </c>
       <c r="T31" t="n">
-        <v>54.08691582695803</v>
+        <v>203.1464755155369</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>267.836266855725</v>
       </c>
       <c r="V31" t="n">
         <v>233.7365577809757</v>
@@ -3016,7 +3016,7 @@
         <v>207.3085698461848</v>
       </c>
       <c r="Y31" t="n">
-        <v>200.1835678092424</v>
+        <v>10.86101695904014</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>237.1553589816771</v>
       </c>
       <c r="I35" t="n">
-        <v>13.6472449231001</v>
+        <v>13.64724492310009</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3323,7 +3323,7 @@
         <v>182.9467051201603</v>
       </c>
       <c r="V35" t="n">
-        <v>259.6203683404943</v>
+        <v>259.6203683404931</v>
       </c>
       <c r="W35" t="n">
         <v>281.1090785877724</v>
@@ -3332,7 +3332,7 @@
         <v>301.5992105488284</v>
       </c>
       <c r="Y35" t="n">
-        <v>318.106048526413</v>
+        <v>318.1060485264129</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>237.1553589816771</v>
       </c>
       <c r="I38" t="n">
-        <v>13.64724492310009</v>
+        <v>13.64724492310012</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>64.81847467555819</v>
+        <v>64.81847467555825</v>
       </c>
       <c r="T38" t="n">
         <v>140.3508982088613</v>
       </c>
       <c r="U38" t="n">
-        <v>182.9467051201603</v>
+        <v>182.9467051201589</v>
       </c>
       <c r="V38" t="n">
-        <v>259.6203683404942</v>
+        <v>259.6203683404943</v>
       </c>
       <c r="W38" t="n">
         <v>281.1090785877724</v>
@@ -3569,7 +3569,7 @@
         <v>301.5992105488284</v>
       </c>
       <c r="Y38" t="n">
-        <v>318.1060485264126</v>
+        <v>318.106048526413</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>314.60195153384</v>
+        <v>314.6019515338399</v>
       </c>
       <c r="C41" t="n">
         <v>297.1410016413669</v>
@@ -3746,7 +3746,7 @@
         <v>286.5511514910423</v>
       </c>
       <c r="E41" t="n">
-        <v>313.7984799426212</v>
+        <v>313.7984799426211</v>
       </c>
       <c r="F41" t="n">
         <v>338.7441556120708</v>
@@ -3755,10 +3755,10 @@
         <v>343.8326266600508</v>
       </c>
       <c r="H41" t="n">
-        <v>237.1553589816771</v>
+        <v>237.155358981677</v>
       </c>
       <c r="I41" t="n">
-        <v>13.64724492310009</v>
+        <v>13.64724492310006</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>64.81847467555819</v>
       </c>
       <c r="T41" t="n">
-        <v>140.3508982088613</v>
+        <v>140.3508982088612</v>
       </c>
       <c r="U41" t="n">
         <v>182.9467051201603</v>
@@ -3800,7 +3800,7 @@
         <v>259.6203683404942</v>
       </c>
       <c r="W41" t="n">
-        <v>281.1090785877703</v>
+        <v>281.1090785877716</v>
       </c>
       <c r="X41" t="n">
         <v>301.5992105488284</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>617.7893333662367</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="C2" t="n">
-        <v>338.843359929514</v>
+        <v>683.2303018926189</v>
       </c>
       <c r="D2" t="n">
-        <v>338.843359929514</v>
+        <v>683.2303018926189</v>
       </c>
       <c r="E2" t="n">
-        <v>338.843359929514</v>
+        <v>404.2843284558962</v>
       </c>
       <c r="F2" t="n">
-        <v>59.89738649279127</v>
+        <v>397.3388277066927</v>
       </c>
       <c r="G2" t="n">
-        <v>22.09252109618844</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618844</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J2" t="n">
         <v>22.09252109618843</v>
@@ -4334,16 +4334,16 @@
         <v>142.8373253438683</v>
       </c>
       <c r="L2" t="n">
-        <v>344.9085595412869</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M2" t="n">
         <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901066</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4352,28 +4352,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="S2" t="n">
-        <v>896.7353068029595</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="T2" t="n">
-        <v>896.7353068029595</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="U2" t="n">
-        <v>896.7353068029595</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="V2" t="n">
-        <v>896.7353068029595</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="W2" t="n">
-        <v>896.7353068029595</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="X2" t="n">
-        <v>896.7353068029595</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="Y2" t="n">
-        <v>896.7353068029595</v>
+        <v>962.1762753293416</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.09252109618844</v>
+        <v>430.2340207428599</v>
       </c>
       <c r="C3" t="n">
-        <v>22.09252109618844</v>
+        <v>258.7068067399522</v>
       </c>
       <c r="D3" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="E3" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="F3" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="G3" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="H3" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J3" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K3" t="n">
-        <v>94.45522409818579</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L3" t="n">
-        <v>94.45522409818579</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M3" t="n">
-        <v>367.8501726635177</v>
+        <v>679.0427979944839</v>
       </c>
       <c r="N3" t="n">
-        <v>641.2451212288496</v>
+        <v>952.4377465598157</v>
       </c>
       <c r="O3" t="n">
-        <v>907.7419348121334</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="P3" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1008.180757940352</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="S3" t="n">
-        <v>836.1767451915302</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="T3" t="n">
-        <v>634.2968452196395</v>
+        <v>806.3008579684607</v>
       </c>
       <c r="U3" t="n">
-        <v>406.0782328537872</v>
+        <v>806.3008579684607</v>
       </c>
       <c r="V3" t="n">
-        <v>170.9261246220445</v>
+        <v>806.3008579684607</v>
       </c>
       <c r="W3" t="n">
-        <v>170.9261246220445</v>
+        <v>806.3008579684607</v>
       </c>
       <c r="X3" t="n">
-        <v>170.9261246220445</v>
+        <v>598.4493577629279</v>
       </c>
       <c r="Y3" t="n">
-        <v>170.9261246220445</v>
+        <v>598.4493577629279</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492715</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160687</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N4" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754623</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="W4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>49.3807471715364</v>
+        <v>586.7386850939503</v>
       </c>
       <c r="C5" t="n">
-        <v>49.3807471715364</v>
+        <v>586.7386850939503</v>
       </c>
       <c r="D5" t="n">
-        <v>49.3807471715364</v>
+        <v>586.7386850939503</v>
       </c>
       <c r="E5" t="n">
-        <v>49.3807471715364</v>
+        <v>586.7386850939503</v>
       </c>
       <c r="F5" t="n">
-        <v>42.43524642233293</v>
+        <v>579.7931843447468</v>
       </c>
       <c r="G5" t="n">
-        <v>27.34986481352265</v>
+        <v>564.7078027359365</v>
       </c>
       <c r="H5" t="n">
-        <v>27.34986481352265</v>
+        <v>225.612980214617</v>
       </c>
       <c r="I5" t="n">
-        <v>27.34986481352265</v>
+        <v>27.34986481352267</v>
       </c>
       <c r="J5" t="n">
-        <v>46.4588948808198</v>
+        <v>46.45889488082014</v>
       </c>
       <c r="K5" t="n">
-        <v>195.8431816943456</v>
+        <v>195.843181694346</v>
       </c>
       <c r="L5" t="n">
-        <v>433.4442264909778</v>
+        <v>433.4442264909784</v>
       </c>
       <c r="M5" t="n">
-        <v>714.4277151203059</v>
+        <v>714.4277151203066</v>
       </c>
       <c r="N5" t="n">
-        <v>985.3258128090368</v>
+        <v>985.3258128090376</v>
       </c>
       <c r="O5" t="n">
-        <v>1195.939566860206</v>
+        <v>1195.939566860207</v>
       </c>
       <c r="P5" t="n">
-        <v>1338.01915031393</v>
+        <v>1338.019150313931</v>
       </c>
       <c r="Q5" t="n">
-        <v>1367.493240676133</v>
+        <v>1367.493240676134</v>
       </c>
       <c r="R5" t="n">
-        <v>1367.493240676133</v>
+        <v>1367.493240676134</v>
       </c>
       <c r="S5" t="n">
-        <v>1367.493240676133</v>
+        <v>1367.493240676134</v>
       </c>
       <c r="T5" t="n">
-        <v>1324.95152993744</v>
+        <v>1367.493240676134</v>
       </c>
       <c r="U5" t="n">
-        <v>1071.09678637174</v>
+        <v>1367.493240676134</v>
       </c>
       <c r="V5" t="n">
-        <v>740.0338990281691</v>
+        <v>1277.391836950583</v>
       </c>
       <c r="W5" t="n">
-        <v>394.7073230998527</v>
+        <v>932.0652610222669</v>
       </c>
       <c r="X5" t="n">
-        <v>394.7073230998527</v>
+        <v>586.7386850939503</v>
       </c>
       <c r="Y5" t="n">
-        <v>49.3807471715364</v>
+        <v>586.7386850939503</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>294.2766397256337</v>
+        <v>350.7373037559009</v>
       </c>
       <c r="C6" t="n">
-        <v>119.8236104445067</v>
+        <v>176.284274474774</v>
       </c>
       <c r="D6" t="n">
-        <v>119.8236104445067</v>
+        <v>27.34986481352267</v>
       </c>
       <c r="E6" t="n">
-        <v>27.34986481352265</v>
+        <v>27.34986481352267</v>
       </c>
       <c r="F6" t="n">
-        <v>27.34986481352265</v>
+        <v>27.34986481352267</v>
       </c>
       <c r="G6" t="n">
-        <v>27.34986481352265</v>
+        <v>27.34986481352267</v>
       </c>
       <c r="H6" t="n">
-        <v>27.34986481352265</v>
+        <v>27.34986481352267</v>
       </c>
       <c r="I6" t="n">
-        <v>27.34986481352265</v>
+        <v>27.34986481352267</v>
       </c>
       <c r="J6" t="n">
-        <v>27.34986481352265</v>
+        <v>45.03769252864039</v>
       </c>
       <c r="K6" t="n">
-        <v>184.202022769217</v>
+        <v>201.8898504843348</v>
       </c>
       <c r="L6" t="n">
-        <v>456.5135021860194</v>
+        <v>201.8898504843348</v>
       </c>
       <c r="M6" t="n">
-        <v>733.8803970880447</v>
+        <v>540.3444275516779</v>
       </c>
       <c r="N6" t="n">
-        <v>1072.334974155387</v>
+        <v>878.7990046190209</v>
       </c>
       <c r="O6" t="n">
-        <v>1367.493240676133</v>
+        <v>1053.31460155366</v>
       </c>
       <c r="P6" t="n">
-        <v>1367.493240676133</v>
+        <v>1273.202064371588</v>
       </c>
       <c r="Q6" t="n">
-        <v>1367.493240676133</v>
+        <v>1367.493240676134</v>
       </c>
       <c r="R6" t="n">
-        <v>1367.493240676133</v>
+        <v>1278.679140394076</v>
       </c>
       <c r="S6" t="n">
-        <v>1367.493240676133</v>
+        <v>1108.958125493941</v>
       </c>
       <c r="T6" t="n">
-        <v>1367.493240676133</v>
+        <v>907.5736387506081</v>
       </c>
       <c r="U6" t="n">
-        <v>1367.493240676133</v>
+        <v>679.3631125636767</v>
       </c>
       <c r="V6" t="n">
-        <v>1132.34113244439</v>
+        <v>444.211004331934</v>
       </c>
       <c r="W6" t="n">
-        <v>878.1037757161885</v>
+        <v>350.7373037559009</v>
       </c>
       <c r="X6" t="n">
-        <v>670.2522755106556</v>
+        <v>350.7373037559009</v>
       </c>
       <c r="Y6" t="n">
-        <v>462.4919767457017</v>
+        <v>350.7373037559009</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>95.39182801593498</v>
+        <v>27.34986481352267</v>
       </c>
       <c r="C7" t="n">
-        <v>95.39182801593498</v>
+        <v>27.34986481352267</v>
       </c>
       <c r="D7" t="n">
-        <v>95.39182801593498</v>
+        <v>27.34986481352267</v>
       </c>
       <c r="E7" t="n">
-        <v>95.39182801593498</v>
+        <v>27.34986481352267</v>
       </c>
       <c r="F7" t="n">
-        <v>30.46115954088238</v>
+        <v>27.34986481352267</v>
       </c>
       <c r="G7" t="n">
-        <v>30.46115954088238</v>
+        <v>27.34986481352267</v>
       </c>
       <c r="H7" t="n">
-        <v>30.46115954088238</v>
+        <v>27.34986481352267</v>
       </c>
       <c r="I7" t="n">
-        <v>30.46115954088238</v>
+        <v>27.34986481352267</v>
       </c>
       <c r="J7" t="n">
-        <v>30.46115954088238</v>
+        <v>27.34986481352267</v>
       </c>
       <c r="K7" t="n">
-        <v>27.34986481352265</v>
+        <v>27.34986481352267</v>
       </c>
       <c r="L7" t="n">
-        <v>78.97414292953532</v>
+        <v>78.97414292953539</v>
       </c>
       <c r="M7" t="n">
-        <v>143.7938290394786</v>
+        <v>143.7938290394787</v>
       </c>
       <c r="N7" t="n">
-        <v>212.5068643147027</v>
+        <v>212.5068643147029</v>
       </c>
       <c r="O7" t="n">
-        <v>259.9581784039155</v>
+        <v>259.9581784039157</v>
       </c>
       <c r="P7" t="n">
-        <v>277.0402928461747</v>
+        <v>277.0402928461749</v>
       </c>
       <c r="Q7" t="n">
-        <v>277.0402928461747</v>
+        <v>277.0402928461749</v>
       </c>
       <c r="R7" t="n">
-        <v>277.0402928461747</v>
+        <v>277.0402928461749</v>
       </c>
       <c r="S7" t="n">
-        <v>277.0402928461747</v>
+        <v>277.0402928461749</v>
       </c>
       <c r="T7" t="n">
-        <v>277.0402928461747</v>
+        <v>277.0402928461749</v>
       </c>
       <c r="U7" t="n">
-        <v>277.0402928461747</v>
+        <v>27.34986481352267</v>
       </c>
       <c r="V7" t="n">
-        <v>277.0402928461747</v>
+        <v>27.34986481352267</v>
       </c>
       <c r="W7" t="n">
-        <v>277.0402928461747</v>
+        <v>27.34986481352267</v>
       </c>
       <c r="X7" t="n">
-        <v>277.0402928461747</v>
+        <v>27.34986481352267</v>
       </c>
       <c r="Y7" t="n">
-        <v>277.0402928461747</v>
+        <v>27.34986481352267</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2662.300141494594</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2662.300141494594</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2662.300141494594</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2662.300141494594</v>
+        <v>2434.152430754045</v>
       </c>
       <c r="V8" t="n">
-        <v>2331.237254151024</v>
+        <v>2434.152430754045</v>
       </c>
       <c r="W8" t="n">
-        <v>1978.468598880909</v>
+        <v>2081.383775483931</v>
       </c>
       <c r="X8" t="n">
-        <v>1978.468598880909</v>
+        <v>1707.918017222851</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1317.778685247039</v>
       </c>
     </row>
     <row r="9">
@@ -4881,10 +4881,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
         <v>670.8219208598706</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>552.8413109986425</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>552.8413109986425</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>552.8413109986425</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>404.9282174162494</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>404.9282174162494</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T10" t="n">
-        <v>552.8413109986425</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="U10" t="n">
-        <v>552.8413109986425</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="V10" t="n">
-        <v>552.8413109986425</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="W10" t="n">
-        <v>552.8413109986425</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="X10" t="n">
-        <v>552.8413109986425</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y10" t="n">
-        <v>552.8413109986425</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="11">
@@ -5030,28 +5030,28 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5121,22 +5121,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.417155020476</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>416.5712828402494</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C13" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D13" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5227,22 +5227,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765188</v>
       </c>
       <c r="V13" t="n">
-        <v>1298.996260473455</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
-        <v>1009.579090436494</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>781.5895395384762</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="Y13" t="n">
-        <v>560.796960394946</v>
+        <v>97.21709146028581</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155897</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514079</v>
@@ -5288,22 +5288,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5321,7 +5321,7 @@
         <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="15">
@@ -5352,7 +5352,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
@@ -5361,19 +5361,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>581.2185435662825</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5455,31 +5455,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1280.2737293315</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>1280.2737293315</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>990.8565592945396</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X16" t="n">
-        <v>762.8670083965222</v>
+        <v>241.9805482336711</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.8670083965222</v>
+        <v>241.9805482336711</v>
       </c>
     </row>
     <row r="17">
@@ -5507,40 +5507,40 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5555,10 +5555,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,7 +5589,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256435</v>
@@ -5598,19 +5598,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.995055864554</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N18" t="n">
-        <v>1538.857683528586</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>2208.321444831246</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,7 +5689,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
         <v>1498.916270557902</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1271.74934457492</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V19" t="n">
-        <v>1017.064856369034</v>
+        <v>531.3977182706315</v>
       </c>
       <c r="W19" t="n">
-        <v>727.647686332073</v>
+        <v>531.3977182706315</v>
       </c>
       <c r="X19" t="n">
-        <v>499.6581354340557</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5774,7 +5774,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5826,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>138.7081686256435</v>
@@ -5835,22 +5835,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>709.4934589365139</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>1016.813592216476</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N21" t="n">
-        <v>1346.676219880508</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881927</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1271.460813324402</v>
       </c>
       <c r="U22" t="n">
-        <v>1098.712528333286</v>
+        <v>982.3321745379601</v>
       </c>
       <c r="V22" t="n">
-        <v>844.0280401273993</v>
+        <v>727.6476863320731</v>
       </c>
       <c r="W22" t="n">
-        <v>554.6108700904388</v>
+        <v>727.6476863320731</v>
       </c>
       <c r="X22" t="n">
-        <v>554.6108700904388</v>
+        <v>499.6581354340559</v>
       </c>
       <c r="Y22" t="n">
-        <v>447.8017392184324</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="23">
@@ -5966,34 +5966,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619856</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>451.0205505516964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>451.0205505516964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>319.4908662331509</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>190.1647277445481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>190.1647277445481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>190.1647277445481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>190.1647277445481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>127.8168586116196</v>
+        <v>127.8168586116195</v>
       </c>
       <c r="K25" t="n">
-        <v>296.2193375436548</v>
+        <v>296.2193375436547</v>
       </c>
       <c r="L25" t="n">
-        <v>562.1484572422079</v>
+        <v>562.1484572422078</v>
       </c>
       <c r="M25" t="n">
-        <v>851.9322746968145</v>
+        <v>851.9322746968144</v>
       </c>
       <c r="N25" t="n">
         <v>1140.693458411786</v>
       </c>
       <c r="O25" t="n">
-        <v>1392.785511104607</v>
+        <v>1392.785511104606</v>
       </c>
       <c r="P25" t="n">
         <v>1587.602350397713</v>
@@ -6172,25 +6172,25 @@
         <v>1644.652868057293</v>
       </c>
       <c r="S25" t="n">
-        <v>1574.754978577635</v>
+        <v>1463.319813066635</v>
       </c>
       <c r="T25" t="n">
-        <v>1369.556518460931</v>
+        <v>1258.121352949931</v>
       </c>
       <c r="U25" t="n">
-        <v>1369.556518460931</v>
+        <v>987.5796692572794</v>
       </c>
       <c r="V25" t="n">
-        <v>1133.458985348834</v>
+        <v>751.4821361451827</v>
       </c>
       <c r="W25" t="n">
-        <v>862.6287704056633</v>
+        <v>671.8868210507023</v>
       </c>
       <c r="X25" t="n">
-        <v>653.2261746014362</v>
+        <v>462.4842252464753</v>
       </c>
       <c r="Y25" t="n">
-        <v>451.0205505516964</v>
+        <v>260.2786011967353</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G26" t="n">
         <v>488.1932370805469</v>
@@ -6224,7 +6224,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514082</v>
@@ -6306,25 +6306,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619856</v>
+        <v>698.8634468392138</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1006.183580119176</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1336.046207783208</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>772.4579862158364</v>
+        <v>247.5663192944026</v>
       </c>
       <c r="C28" t="n">
-        <v>622.1087583817197</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>622.1087583817197</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>492.7826198931168</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>378.6365114049414</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>229.0481448185523</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6385,13 +6385,13 @@
         <v>127.8168586116195</v>
       </c>
       <c r="K28" t="n">
-        <v>296.2193375436548</v>
+        <v>296.2193375436547</v>
       </c>
       <c r="L28" t="n">
-        <v>562.1484572422078</v>
+        <v>562.1484572422077</v>
       </c>
       <c r="M28" t="n">
-        <v>851.9322746968144</v>
+        <v>851.9322746968141</v>
       </c>
       <c r="N28" t="n">
         <v>1140.693458411786</v>
@@ -6403,31 +6403,31 @@
         <v>1587.602350397713</v>
       </c>
       <c r="Q28" t="n">
-        <v>1644.652868057293</v>
+        <v>1644.652868057292</v>
       </c>
       <c r="R28" t="n">
-        <v>1644.652868057293</v>
+        <v>1644.652868057292</v>
       </c>
       <c r="S28" t="n">
-        <v>1644.652868057293</v>
+        <v>1463.319813066635</v>
       </c>
       <c r="T28" t="n">
-        <v>1644.652868057293</v>
+        <v>1258.121352949931</v>
       </c>
       <c r="U28" t="n">
-        <v>1644.652868057293</v>
+        <v>987.5796692572793</v>
       </c>
       <c r="V28" t="n">
-        <v>1408.555334945196</v>
+        <v>751.4821361451826</v>
       </c>
       <c r="W28" t="n">
-        <v>1137.725120002026</v>
+        <v>659.1745391483696</v>
       </c>
       <c r="X28" t="n">
-        <v>1137.725120002026</v>
+        <v>449.7719433441425</v>
       </c>
       <c r="Y28" t="n">
-        <v>935.5194959522859</v>
+        <v>247.5663192944026</v>
       </c>
     </row>
     <row r="29">
@@ -6449,10 +6449,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6488,10 +6488,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6540,28 +6540,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>735.0407559057232</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>508.4221421015509</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>358.0729142674342</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>226.5432299488887</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>127.8168586116196</v>
+        <v>127.8168586116195</v>
       </c>
       <c r="K31" t="n">
-        <v>296.2193375436548</v>
+        <v>296.2193375436547</v>
       </c>
       <c r="L31" t="n">
-        <v>562.1484572422079</v>
+        <v>562.1484572422078</v>
       </c>
       <c r="M31" t="n">
-        <v>851.9322746968146</v>
+        <v>851.9322746968144</v>
       </c>
       <c r="N31" t="n">
         <v>1140.693458411786</v>
       </c>
       <c r="O31" t="n">
-        <v>1392.785511104607</v>
+        <v>1392.785511104606</v>
       </c>
       <c r="P31" t="n">
         <v>1587.602350397713</v>
@@ -6646,25 +6646,25 @@
         <v>1644.652868057293</v>
       </c>
       <c r="S31" t="n">
-        <v>1644.652868057293</v>
+        <v>1463.319813066635</v>
       </c>
       <c r="T31" t="n">
-        <v>1590.019619747234</v>
+        <v>1258.121352949931</v>
       </c>
       <c r="U31" t="n">
-        <v>1590.019619747234</v>
+        <v>987.5796692572799</v>
       </c>
       <c r="V31" t="n">
-        <v>1353.922086635138</v>
+        <v>751.4821361451832</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.091871691967</v>
+        <v>480.6519212020128</v>
       </c>
       <c r="X31" t="n">
-        <v>873.6892758877402</v>
+        <v>271.2493253977856</v>
       </c>
       <c r="Y31" t="n">
-        <v>671.4836518380004</v>
+        <v>260.2786011967353</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6701,7 +6701,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,7 +6710,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,25 +6777,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>229.0333923118344</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>378.1030765138943</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619856</v>
+        <v>624.8682044203583</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>932.1883377003199</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,16 +6853,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1925.513372462139</v>
+        <v>1925.51337246214</v>
       </c>
       <c r="C35" t="n">
         <v>1625.370946561769</v>
       </c>
       <c r="D35" t="n">
-        <v>1335.925338995059</v>
+        <v>1335.92533899506</v>
       </c>
       <c r="E35" t="n">
         <v>1018.957177436856</v>
       </c>
       <c r="F35" t="n">
-        <v>676.7913636872896</v>
+        <v>676.79136368729</v>
       </c>
       <c r="G35" t="n">
-        <v>329.4856801922888</v>
+        <v>329.485680192289</v>
       </c>
       <c r="H35" t="n">
         <v>89.93481253402931</v>
@@ -6935,25 +6935,25 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J35" t="n">
-        <v>344.8139583742029</v>
+        <v>177.4083093538499</v>
       </c>
       <c r="K35" t="n">
-        <v>868.2168169432326</v>
+        <v>379.9072094774265</v>
       </c>
       <c r="L35" t="n">
-        <v>1474.738596518646</v>
+        <v>1081.511365521224</v>
       </c>
       <c r="M35" t="n">
-        <v>1826.996552080633</v>
+        <v>1604.214937666074</v>
       </c>
       <c r="N35" t="n">
-        <v>2189.568218016799</v>
+        <v>2399.760058770104</v>
       </c>
       <c r="O35" t="n">
-        <v>2895.591279040995</v>
+        <v>3105.7831197943</v>
       </c>
       <c r="P35" t="n">
-        <v>3460.491244296798</v>
+        <v>3670.683085050103</v>
       </c>
       <c r="Q35" t="n">
         <v>3807.4858326055</v>
@@ -6962,10 +6962,10 @@
         <v>3807.4858326055</v>
       </c>
       <c r="S35" t="n">
-        <v>3742.012625862513</v>
+        <v>3742.012625862512</v>
       </c>
       <c r="T35" t="n">
-        <v>3600.244041813158</v>
+        <v>3600.244041813157</v>
       </c>
       <c r="U35" t="n">
         <v>3415.449390176632</v>
@@ -6980,7 +6980,7 @@
         <v>2564.612362421991</v>
       </c>
       <c r="Y35" t="n">
-        <v>2243.29312148622</v>
+        <v>2243.293121486221</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J36" t="n">
-        <v>242.4709188044724</v>
+        <v>117.6407938174676</v>
       </c>
       <c r="K36" t="n">
-        <v>391.5406030065323</v>
+        <v>370.5366391933366</v>
       </c>
       <c r="L36" t="n">
-        <v>1005.437672763421</v>
+        <v>617.3017670998006</v>
       </c>
       <c r="M36" t="n">
-        <v>1312.757806043383</v>
+        <v>1385.669913492262</v>
       </c>
       <c r="N36" t="n">
-        <v>1642.620433707415</v>
+        <v>1715.532541156295</v>
       </c>
       <c r="O36" t="n">
-        <v>1922.160498926112</v>
+        <v>1995.072606374992</v>
       </c>
       <c r="P36" t="n">
-        <v>2442.461120661859</v>
+        <v>2515.373228110739</v>
       </c>
       <c r="Q36" t="n">
         <v>2602.506130567962</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>638.3928643026571</v>
+        <v>638.3928643026568</v>
       </c>
       <c r="C37" t="n">
-        <v>538.2767724147913</v>
+        <v>538.2767724147909</v>
       </c>
       <c r="D37" t="n">
-        <v>456.9802240424966</v>
+        <v>456.9802240424962</v>
       </c>
       <c r="E37" t="n">
-        <v>377.8872215001445</v>
+        <v>377.8872215001442</v>
       </c>
       <c r="F37" t="n">
-        <v>299.8173650422755</v>
+        <v>299.8173650422748</v>
       </c>
       <c r="G37" t="n">
-        <v>200.4621344021371</v>
+        <v>200.4621344021365</v>
       </c>
       <c r="H37" t="n">
-        <v>118.8642169901215</v>
+        <v>118.8642169901209</v>
       </c>
       <c r="I37" t="n">
         <v>76.14971665211002</v>
@@ -7096,10 +7096,10 @@
         <v>155.9829803443641</v>
       </c>
       <c r="K37" t="n">
-        <v>373.6189558173198</v>
+        <v>373.6189558173194</v>
       </c>
       <c r="L37" t="n">
-        <v>688.7815720567932</v>
+        <v>688.7815720567928</v>
       </c>
       <c r="M37" t="n">
         <v>1027.79888605232</v>
@@ -7108,19 +7108,19 @@
         <v>1365.793566308212</v>
       </c>
       <c r="O37" t="n">
-        <v>1667.119115541954</v>
+        <v>1667.119115541953</v>
       </c>
       <c r="P37" t="n">
-        <v>1911.169451375981</v>
+        <v>1911.16945137598</v>
       </c>
       <c r="Q37" t="n">
-        <v>2017.453465576481</v>
+        <v>2017.45346557648</v>
       </c>
       <c r="R37" t="n">
-        <v>1975.198453178347</v>
+        <v>1975.198453178346</v>
       </c>
       <c r="S37" t="n">
-        <v>1844.098534133941</v>
+        <v>1844.09853413394</v>
       </c>
       <c r="T37" t="n">
         <v>1689.133209963487</v>
@@ -7129,16 +7129,16 @@
         <v>1468.824662217086</v>
       </c>
       <c r="V37" t="n">
-        <v>1282.960265051241</v>
+        <v>1282.96026505124</v>
       </c>
       <c r="W37" t="n">
         <v>1062.363186054321</v>
       </c>
       <c r="X37" t="n">
-        <v>903.1937261963449</v>
+        <v>903.1937261963444</v>
       </c>
       <c r="Y37" t="n">
-        <v>751.2212380928557</v>
+        <v>751.2212380928554</v>
       </c>
     </row>
     <row r="38">
@@ -7166,7 +7166,7 @@
         <v>329.485680192289</v>
       </c>
       <c r="H38" t="n">
-        <v>89.93481253402931</v>
+        <v>89.93481253402933</v>
       </c>
       <c r="I38" t="n">
         <v>76.14971665211002</v>
@@ -7175,16 +7175,16 @@
         <v>344.8139583742029</v>
       </c>
       <c r="K38" t="n">
-        <v>868.2168169432326</v>
+        <v>705.1082217670618</v>
       </c>
       <c r="L38" t="n">
-        <v>1474.738596518646</v>
+        <v>1406.71237781086</v>
       </c>
       <c r="M38" t="n">
-        <v>1826.996552080633</v>
+        <v>2203.988731530751</v>
       </c>
       <c r="N38" t="n">
-        <v>2189.568218016799</v>
+        <v>2566.560397466917</v>
       </c>
       <c r="O38" t="n">
         <v>2895.591279040995</v>
@@ -7193,19 +7193,19 @@
         <v>3460.491244296798</v>
       </c>
       <c r="Q38" t="n">
-        <v>3807.485832605501</v>
+        <v>3807.4858326055</v>
       </c>
       <c r="R38" t="n">
-        <v>3807.485832605501</v>
+        <v>3807.4858326055</v>
       </c>
       <c r="S38" t="n">
-        <v>3742.012625862513</v>
+        <v>3742.012625862512</v>
       </c>
       <c r="T38" t="n">
-        <v>3600.244041813158</v>
+        <v>3600.244041813157</v>
       </c>
       <c r="U38" t="n">
-        <v>3415.449390176632</v>
+        <v>3415.449390176633</v>
       </c>
       <c r="V38" t="n">
         <v>3153.206593873103</v>
@@ -7251,22 +7251,22 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J39" t="n">
-        <v>242.4709188044724</v>
+        <v>117.6407938174676</v>
       </c>
       <c r="K39" t="n">
-        <v>653.361187648985</v>
+        <v>266.7104780195275</v>
       </c>
       <c r="L39" t="n">
-        <v>1185.651406307347</v>
+        <v>513.4756059259915</v>
       </c>
       <c r="M39" t="n">
-        <v>1492.971539587309</v>
+        <v>820.7957392059532</v>
       </c>
       <c r="N39" t="n">
-        <v>1822.834167251342</v>
+        <v>1150.658366869986</v>
       </c>
       <c r="O39" t="n">
-        <v>2102.374232470039</v>
+        <v>1820.122128172645</v>
       </c>
       <c r="P39" t="n">
         <v>2307.396713252248</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>638.3928643026572</v>
+        <v>638.3928643026575</v>
       </c>
       <c r="C40" t="n">
-        <v>538.2767724147914</v>
+        <v>538.2767724147916</v>
       </c>
       <c r="D40" t="n">
-        <v>456.9802240424967</v>
+        <v>456.980224042497</v>
       </c>
       <c r="E40" t="n">
-        <v>377.8872215001446</v>
+        <v>377.8872215001448</v>
       </c>
       <c r="F40" t="n">
-        <v>299.8173650422753</v>
+        <v>299.8173650422755</v>
       </c>
       <c r="G40" t="n">
-        <v>200.462134402137</v>
+        <v>200.4621344021372</v>
       </c>
       <c r="H40" t="n">
         <v>118.8642169901215</v>
@@ -7330,13 +7330,13 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J40" t="n">
-        <v>155.9829803443641</v>
+        <v>155.9829803443644</v>
       </c>
       <c r="K40" t="n">
-        <v>373.6189558173198</v>
+        <v>373.6189558173201</v>
       </c>
       <c r="L40" t="n">
-        <v>688.7815720567932</v>
+        <v>688.7815720567935</v>
       </c>
       <c r="M40" t="n">
         <v>1027.79888605232</v>
@@ -7351,7 +7351,7 @@
         <v>1911.16945137598</v>
       </c>
       <c r="Q40" t="n">
-        <v>2017.453465576481</v>
+        <v>2017.45346557648</v>
       </c>
       <c r="R40" t="n">
         <v>1975.198453178347</v>
@@ -7363,19 +7363,19 @@
         <v>1689.133209963487</v>
       </c>
       <c r="U40" t="n">
-        <v>1468.824662217086</v>
+        <v>1468.824662217087</v>
       </c>
       <c r="V40" t="n">
         <v>1282.960265051241</v>
       </c>
       <c r="W40" t="n">
-        <v>1062.363186054321</v>
+        <v>1062.363186054322</v>
       </c>
       <c r="X40" t="n">
-        <v>903.1937261963449</v>
+        <v>903.1937261963453</v>
       </c>
       <c r="Y40" t="n">
-        <v>751.2212380928559</v>
+        <v>751.2212380928562</v>
       </c>
     </row>
     <row r="41">
@@ -7397,55 +7397,55 @@
         <v>1018.957177436856</v>
       </c>
       <c r="F41" t="n">
-        <v>676.7913636872898</v>
+        <v>676.7913636872897</v>
       </c>
       <c r="G41" t="n">
-        <v>329.485680192289</v>
+        <v>329.4856801922889</v>
       </c>
       <c r="H41" t="n">
         <v>89.93481253402928</v>
       </c>
       <c r="I41" t="n">
-        <v>76.14971665210999</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J41" t="n">
-        <v>344.8139583742029</v>
+        <v>177.4083093538499</v>
       </c>
       <c r="K41" t="n">
-        <v>547.3128584977794</v>
+        <v>700.8111679228796</v>
       </c>
       <c r="L41" t="n">
-        <v>835.4324121366317</v>
+        <v>988.9307215617318</v>
       </c>
       <c r="M41" t="n">
-        <v>1632.708765856522</v>
+        <v>1767.769416274169</v>
       </c>
       <c r="N41" t="n">
-        <v>2428.253886960553</v>
+        <v>2130.341082210336</v>
       </c>
       <c r="O41" t="n">
-        <v>2895.591279040994</v>
+        <v>2836.364143234531</v>
       </c>
       <c r="P41" t="n">
-        <v>3460.491244296797</v>
+        <v>3401.264108490334</v>
       </c>
       <c r="Q41" t="n">
-        <v>3807.4858326055</v>
+        <v>3748.258696799037</v>
       </c>
       <c r="R41" t="n">
         <v>3807.4858326055</v>
       </c>
       <c r="S41" t="n">
-        <v>3742.012625862511</v>
+        <v>3742.012625862512</v>
       </c>
       <c r="T41" t="n">
-        <v>3600.244041813156</v>
+        <v>3600.244041813157</v>
       </c>
       <c r="U41" t="n">
-        <v>3415.449390176631</v>
+        <v>3415.449390176632</v>
       </c>
       <c r="V41" t="n">
-        <v>3153.206593873101</v>
+        <v>3153.206593873102</v>
       </c>
       <c r="W41" t="n">
         <v>2869.25802964303</v>
@@ -7454,7 +7454,7 @@
         <v>2564.612362421991</v>
       </c>
       <c r="Y41" t="n">
-        <v>2243.293121486221</v>
+        <v>2243.29312148622</v>
       </c>
     </row>
     <row r="42">
@@ -7476,37 +7476,37 @@
         <v>483.7389902965687</v>
       </c>
       <c r="F42" t="n">
-        <v>337.2044323234536</v>
+        <v>337.2044323234537</v>
       </c>
       <c r="G42" t="n">
-        <v>200.2777539276389</v>
+        <v>200.277753927639</v>
       </c>
       <c r="H42" t="n">
         <v>104.3328803593266</v>
       </c>
       <c r="I42" t="n">
-        <v>76.14971665210999</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J42" t="n">
-        <v>242.4709188044723</v>
+        <v>117.6407938174676</v>
       </c>
       <c r="K42" t="n">
-        <v>391.5406030065322</v>
+        <v>266.7104780195275</v>
       </c>
       <c r="L42" t="n">
-        <v>638.3057309129963</v>
+        <v>513.4756059259915</v>
       </c>
       <c r="M42" t="n">
-        <v>1406.673877305458</v>
+        <v>820.7957392059532</v>
       </c>
       <c r="N42" t="n">
-        <v>2030.810682109832</v>
+        <v>1625.207317470104</v>
       </c>
       <c r="O42" t="n">
-        <v>2310.350747328529</v>
+        <v>1904.747382688801</v>
       </c>
       <c r="P42" t="n">
-        <v>2515.373228110739</v>
+        <v>2307.396713252248</v>
       </c>
       <c r="Q42" t="n">
         <v>2602.506130567962</v>
@@ -7543,64 +7543,64 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>638.3928643026572</v>
+        <v>638.3928643026566</v>
       </c>
       <c r="C43" t="n">
-        <v>538.2767724147914</v>
+        <v>538.2767724147907</v>
       </c>
       <c r="D43" t="n">
-        <v>456.9802240424967</v>
+        <v>456.980224042496</v>
       </c>
       <c r="E43" t="n">
-        <v>377.8872215001446</v>
+        <v>377.8872215001441</v>
       </c>
       <c r="F43" t="n">
-        <v>299.8173650422754</v>
+        <v>299.8173650422748</v>
       </c>
       <c r="G43" t="n">
-        <v>200.4621344021371</v>
+        <v>200.4621344021365</v>
       </c>
       <c r="H43" t="n">
         <v>118.8642169901214</v>
       </c>
       <c r="I43" t="n">
-        <v>76.14971665210999</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J43" t="n">
-        <v>155.9829803443641</v>
+        <v>155.9829803443639</v>
       </c>
       <c r="K43" t="n">
-        <v>373.6189558173199</v>
+        <v>373.6189558173196</v>
       </c>
       <c r="L43" t="n">
-        <v>688.7815720567934</v>
+        <v>688.7815720567932</v>
       </c>
       <c r="M43" t="n">
-        <v>1027.798886052321</v>
+        <v>1027.79888605232</v>
       </c>
       <c r="N43" t="n">
-        <v>1365.793566308213</v>
+        <v>1365.793566308212</v>
       </c>
       <c r="O43" t="n">
-        <v>1667.119115541954</v>
+        <v>1667.119115541953</v>
       </c>
       <c r="P43" t="n">
-        <v>1911.169451375981</v>
+        <v>1911.16945137598</v>
       </c>
       <c r="Q43" t="n">
-        <v>2017.453465576481</v>
+        <v>2017.45346557648</v>
       </c>
       <c r="R43" t="n">
         <v>1975.198453178347</v>
       </c>
       <c r="S43" t="n">
-        <v>1844.098534133941</v>
+        <v>1844.09853413394</v>
       </c>
       <c r="T43" t="n">
-        <v>1689.133209963488</v>
+        <v>1689.133209963487</v>
       </c>
       <c r="U43" t="n">
-        <v>1468.824662217087</v>
+        <v>1468.824662217086</v>
       </c>
       <c r="V43" t="n">
         <v>1282.960265051241</v>
@@ -7609,10 +7609,10 @@
         <v>1062.363186054321</v>
       </c>
       <c r="X43" t="n">
-        <v>903.1937261963451</v>
+        <v>903.1937261963446</v>
       </c>
       <c r="Y43" t="n">
-        <v>751.2212380928559</v>
+        <v>751.2212380928552</v>
       </c>
     </row>
     <row r="44">
@@ -7634,49 +7634,49 @@
         <v>1018.957177436856</v>
       </c>
       <c r="F44" t="n">
-        <v>676.7913636872892</v>
+        <v>676.7913636872895</v>
       </c>
       <c r="G44" t="n">
-        <v>329.4856801922883</v>
+        <v>329.4856801922887</v>
       </c>
       <c r="H44" t="n">
-        <v>89.93481253402928</v>
+        <v>89.93481253402931</v>
       </c>
       <c r="I44" t="n">
-        <v>76.14971665210999</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J44" t="n">
-        <v>344.8139583742029</v>
+        <v>177.4083093538499</v>
       </c>
       <c r="K44" t="n">
-        <v>868.2168169432325</v>
+        <v>379.9072094774265</v>
       </c>
       <c r="L44" t="n">
-        <v>1474.738596518645</v>
+        <v>856.100328476182</v>
       </c>
       <c r="M44" t="n">
-        <v>1826.996552080632</v>
+        <v>1653.376682196073</v>
       </c>
       <c r="N44" t="n">
-        <v>2189.568218016798</v>
+        <v>2448.921803300103</v>
       </c>
       <c r="O44" t="n">
-        <v>2895.591279040994</v>
+        <v>3154.944864324299</v>
       </c>
       <c r="P44" t="n">
-        <v>3460.491244296797</v>
+        <v>3401.264108490334</v>
       </c>
       <c r="Q44" t="n">
-        <v>3807.4858326055</v>
+        <v>3748.258696799037</v>
       </c>
       <c r="R44" t="n">
         <v>3807.4858326055</v>
       </c>
       <c r="S44" t="n">
-        <v>3742.012625862511</v>
+        <v>3742.012625862512</v>
       </c>
       <c r="T44" t="n">
-        <v>3600.244041813157</v>
+        <v>3600.244041813158</v>
       </c>
       <c r="U44" t="n">
         <v>3415.449390176632</v>
@@ -7713,37 +7713,37 @@
         <v>483.7389902965687</v>
       </c>
       <c r="F45" t="n">
-        <v>337.2044323234536</v>
+        <v>337.2044323234537</v>
       </c>
       <c r="G45" t="n">
-        <v>200.2777539276389</v>
+        <v>200.277753927639</v>
       </c>
       <c r="H45" t="n">
         <v>104.3328803593266</v>
       </c>
       <c r="I45" t="n">
-        <v>76.14971665210999</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J45" t="n">
-        <v>242.4709188044723</v>
+        <v>117.6407938174676</v>
       </c>
       <c r="K45" t="n">
-        <v>653.361187648985</v>
+        <v>266.7104780195275</v>
       </c>
       <c r="L45" t="n">
-        <v>1185.651406307347</v>
+        <v>880.6075477764161</v>
       </c>
       <c r="M45" t="n">
-        <v>1492.971539587309</v>
+        <v>1187.927681056378</v>
       </c>
       <c r="N45" t="n">
-        <v>1822.834167251342</v>
+        <v>1517.790308720411</v>
       </c>
       <c r="O45" t="n">
-        <v>2102.374232470039</v>
+        <v>2187.25407002307</v>
       </c>
       <c r="P45" t="n">
-        <v>2307.396713252248</v>
+        <v>2392.27655080528</v>
       </c>
       <c r="Q45" t="n">
         <v>2602.506130567962</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>638.3928643026572</v>
+        <v>638.3928643026574</v>
       </c>
       <c r="C46" t="n">
-        <v>538.2767724147914</v>
+        <v>538.2767724147915</v>
       </c>
       <c r="D46" t="n">
-        <v>456.9802240424967</v>
+        <v>456.9802240424968</v>
       </c>
       <c r="E46" t="n">
-        <v>377.8872215001446</v>
+        <v>377.8872215001447</v>
       </c>
       <c r="F46" t="n">
         <v>299.8173650422754</v>
@@ -7798,10 +7798,10 @@
         <v>200.4621344021371</v>
       </c>
       <c r="H46" t="n">
-        <v>118.8642169901214</v>
+        <v>118.8642169901215</v>
       </c>
       <c r="I46" t="n">
-        <v>76.14971665210999</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J46" t="n">
         <v>155.9829803443641</v>
@@ -7813,43 +7813,43 @@
         <v>688.7815720567933</v>
       </c>
       <c r="M46" t="n">
-        <v>1027.79888605232</v>
+        <v>1027.798886052321</v>
       </c>
       <c r="N46" t="n">
-        <v>1365.793566308212</v>
+        <v>1365.793566308213</v>
       </c>
       <c r="O46" t="n">
-        <v>1667.119115541953</v>
+        <v>1667.119115541954</v>
       </c>
       <c r="P46" t="n">
-        <v>1911.169451375979</v>
+        <v>1911.169451375981</v>
       </c>
       <c r="Q46" t="n">
-        <v>2017.45346557648</v>
+        <v>2017.453465576481</v>
       </c>
       <c r="R46" t="n">
-        <v>1975.198453178346</v>
+        <v>1975.198453178347</v>
       </c>
       <c r="S46" t="n">
-        <v>1844.098534133939</v>
+        <v>1844.098534133941</v>
       </c>
       <c r="T46" t="n">
-        <v>1689.133209963486</v>
+        <v>1689.133209963488</v>
       </c>
       <c r="U46" t="n">
-        <v>1468.824662217086</v>
+        <v>1468.824662217087</v>
       </c>
       <c r="V46" t="n">
         <v>1282.960265051241</v>
       </c>
       <c r="W46" t="n">
-        <v>1062.363186054321</v>
+        <v>1062.363186054322</v>
       </c>
       <c r="X46" t="n">
-        <v>903.1937261963449</v>
+        <v>903.1937261963453</v>
       </c>
       <c r="Y46" t="n">
-        <v>751.2212380928559</v>
+        <v>751.221238092856</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>192.400813724435</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>122.1984598562864</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>399.2039605324505</v>
@@ -8070,13 +8070,13 @@
         <v>387.9064735273546</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>198.6880201340531</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3661252938571</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>108.2245426988758</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>95.77824488244653</v>
       </c>
       <c r="M6" t="n">
-        <v>372.3848828257738</v>
+        <v>434.0896122856907</v>
       </c>
       <c r="N6" t="n">
-        <v>421.9761166209644</v>
+        <v>421.9761166209646</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>272.0010368665213</v>
       </c>
       <c r="P6" t="n">
-        <v>96.35422033900045</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>114.8336753070147</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8769,10 +8769,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L12" t="n">
-        <v>180.0237016735874</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9009,13 +9009,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>285.1031356539327</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>29.47535963978214</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9173,7 +9173,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9246,22 +9246,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>199.6230805871088</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>124.3400780863231</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>176.7176547498449</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>113.6026921294543</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,19 +9714,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>96.03744927814688</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>62.91120742583786</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,10 +9735,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9954,10 +9954,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>96.03744927814688</v>
+        <v>165.9802687929761</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,19 +10188,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>202.5230052237938</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10425,19 +10425,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>91.23759968302119</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10583,19 +10583,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>321.6184100369308</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>172.1672894776392</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>5.891030169484338</v>
@@ -10662,16 +10662,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>104.8749102765748</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>73.64859338270682</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10823,19 +10823,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>159.3892558275579</v>
       </c>
       <c r="L38" t="n">
-        <v>321.6184100369308</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>285.1031356539331</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11057,22 +11057,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>430.8896355055059</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>139.7035459660231</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>5.891030169484338</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11145,19 +11145,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>297.2466435761028</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>199.623080587109</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>321.61841003693</v>
+        <v>189.9732983433367</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>5.891030169484338</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>288.409182577675</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,13 +11388,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>124.3400780863224</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445217</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37.04855940278765</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23467,13 +23467,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>36.5161579762859</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,10 +23662,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23701,22 +23701,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>69.7812365844389</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23941,19 +23941,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>259.2629056590284</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>14.45548819888984</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>194.2874683808275</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>112.8436137888086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>161.430894639085</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>148.8457355557755</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>130.2143874753601</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>128.0328771037169</v>
       </c>
       <c r="F25" t="n">
         <v>127.0199624800789</v>
       </c>
       <c r="G25" t="n">
-        <v>148.0924829205252</v>
+        <v>148.0924829205253</v>
       </c>
       <c r="H25" t="n">
         <v>130.5127428246838</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>92.01815992141968</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,22 +24409,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>91.56326686094046</v>
+        <v>91.56326686094049</v>
       </c>
       <c r="S25" t="n">
-        <v>110.3208138558893</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>267.836266855725</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>189.322550850203</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>161.430894639085</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>130.21438747536</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>128.0328771037169</v>
       </c>
       <c r="F28" t="n">
-        <v>14.01531507678533</v>
+        <v>127.0199624800789</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>148.0924829205253</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>130.5127428246838</v>
       </c>
       <c r="I28" t="n">
-        <v>92.01815992141965</v>
+        <v>92.01815992141967</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>91.56326686094046</v>
+        <v>91.56326686094047</v>
       </c>
       <c r="S28" t="n">
-        <v>179.5197244407509</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>203.1464755155369</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>267.836266855725</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>176.7373917668932</v>
       </c>
       <c r="X28" t="n">
-        <v>207.3085698461848</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>148.8457355557755</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>130.21438747536</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>128.0328771037168</v>
       </c>
       <c r="F31" t="n">
         <v>127.0199624800789</v>
@@ -24856,7 +24856,7 @@
         <v>130.5127428246838</v>
       </c>
       <c r="I31" t="n">
-        <v>92.01815992141965</v>
+        <v>92.01815992141964</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>91.56326686094046</v>
+        <v>91.56326686094044</v>
       </c>
       <c r="S31" t="n">
-        <v>179.5197244407509</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>149.0595596885789</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>267.836266855725</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>189.3225508502023</v>
       </c>
     </row>
     <row r="32">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>431046.929178749</v>
+      </c>
+      <c r="C2" t="n">
         <v>431046.9291787487</v>
       </c>
-      <c r="C2" t="n">
-        <v>431046.929178749</v>
-      </c>
       <c r="D2" t="n">
+        <v>431046.9291787488</v>
+      </c>
+      <c r="E2" t="n">
+        <v>410580.5127245942</v>
+      </c>
+      <c r="F2" t="n">
+        <v>410580.5127245941</v>
+      </c>
+      <c r="G2" t="n">
+        <v>410580.5127245943</v>
+      </c>
+      <c r="H2" t="n">
+        <v>410580.5127245942</v>
+      </c>
+      <c r="I2" t="n">
+        <v>416108.0898872402</v>
+      </c>
+      <c r="J2" t="n">
+        <v>416108.0898872403</v>
+      </c>
+      <c r="K2" t="n">
+        <v>416108.0898872403</v>
+      </c>
+      <c r="L2" t="n">
+        <v>431046.9291787485</v>
+      </c>
+      <c r="M2" t="n">
         <v>431046.9291787487</v>
-      </c>
-      <c r="E2" t="n">
-        <v>410580.5127245943</v>
-      </c>
-      <c r="F2" t="n">
-        <v>410580.5127245943</v>
-      </c>
-      <c r="G2" t="n">
-        <v>410580.5127245942</v>
-      </c>
-      <c r="H2" t="n">
-        <v>410580.5127245943</v>
-      </c>
-      <c r="I2" t="n">
-        <v>416108.0898872401</v>
-      </c>
-      <c r="J2" t="n">
-        <v>416108.0898872402</v>
-      </c>
-      <c r="K2" t="n">
-        <v>416108.0898872401</v>
-      </c>
-      <c r="L2" t="n">
-        <v>431046.9291787487</v>
-      </c>
-      <c r="M2" t="n">
-        <v>431046.9291787485</v>
       </c>
       <c r="N2" t="n">
         <v>431046.9291787487</v>
       </c>
       <c r="O2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.9291787486</v>
       </c>
       <c r="P2" t="n">
-        <v>431046.9291787484</v>
+        <v>431046.9291787486</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126293.341446813</v>
+        <v>126293.3414468129</v>
       </c>
       <c r="C3" t="n">
-        <v>72744.75223794715</v>
+        <v>72744.75223794741</v>
       </c>
       <c r="D3" t="n">
-        <v>348321.8962936404</v>
+        <v>348321.8962936401</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,16 +26381,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>14720.86843428184</v>
+        <v>14720.86843428187</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.6948711391</v>
+        <v>72254.69487113909</v>
       </c>
       <c r="K3" t="n">
-        <v>16913.4004730359</v>
+        <v>16913.40047303598</v>
       </c>
       <c r="L3" t="n">
         <v>123915.6258741631</v>
@@ -26399,10 +26399,10 @@
         <v>69175.08933762902</v>
       </c>
       <c r="N3" t="n">
-        <v>14720.86843428185</v>
+        <v>14720.86843428183</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,43 +26418,43 @@
         <v>316926.9684369122</v>
       </c>
       <c r="C4" t="n">
-        <v>296337.3092211188</v>
+        <v>296337.3092211187</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>43561.42148316557</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="F4" t="n">
         <v>43561.42148316551</v>
       </c>
       <c r="G4" t="n">
-        <v>43561.42148316556</v>
+        <v>43561.42148316557</v>
       </c>
       <c r="H4" t="n">
-        <v>43561.42148316554</v>
+        <v>43561.42148316557</v>
       </c>
       <c r="I4" t="n">
+        <v>49616.29565456438</v>
+      </c>
+      <c r="J4" t="n">
+        <v>49616.29565456438</v>
+      </c>
+      <c r="K4" t="n">
         <v>49616.29565456439</v>
       </c>
-      <c r="J4" t="n">
-        <v>49616.29565456439</v>
-      </c>
-      <c r="K4" t="n">
-        <v>49616.29565456438</v>
-      </c>
       <c r="L4" t="n">
-        <v>65980.20872448603</v>
+        <v>65980.20872448604</v>
       </c>
       <c r="M4" t="n">
-        <v>99837.12979766782</v>
+        <v>99837.12979766788</v>
       </c>
       <c r="N4" t="n">
-        <v>99837.12979766783</v>
+        <v>99837.12979766785</v>
       </c>
       <c r="O4" t="n">
-        <v>99837.12979766791</v>
+        <v>99837.12979766786</v>
       </c>
       <c r="P4" t="n">
         <v>99837.12979766782</v>
@@ -26470,22 +26470,22 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>56410.20653049165</v>
+        <v>56410.20653049166</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>93534.28680921868</v>
@@ -26503,7 +26503,7 @@
         <v>81703.90096581174</v>
       </c>
       <c r="N5" t="n">
-        <v>81703.90096581176</v>
+        <v>81703.90096581174</v>
       </c>
       <c r="O5" t="n">
         <v>81703.90096581174</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-63354.76022175665</v>
+        <v>-63354.76022175635</v>
       </c>
       <c r="C6" t="n">
-        <v>5554.661189191451</v>
+        <v>5554.661189190854</v>
       </c>
       <c r="D6" t="n">
-        <v>-192340.6415707308</v>
+        <v>-192340.6415707305</v>
       </c>
       <c r="E6" t="n">
-        <v>-250128.2711841839</v>
+        <v>-250225.7303101563</v>
       </c>
       <c r="F6" t="n">
-        <v>275031.7652927121</v>
+        <v>274934.3061667398</v>
       </c>
       <c r="G6" t="n">
-        <v>275031.765292712</v>
+        <v>274934.3061667399</v>
       </c>
       <c r="H6" t="n">
-        <v>275031.7652927121</v>
+        <v>274934.3061667398</v>
       </c>
       <c r="I6" t="n">
-        <v>258236.6389891752</v>
+        <v>258165.5016592157</v>
       </c>
       <c r="J6" t="n">
-        <v>200702.812552318</v>
+        <v>200631.6752223585</v>
       </c>
       <c r="K6" t="n">
-        <v>256044.1069504211</v>
+        <v>255972.9696204616</v>
       </c>
       <c r="L6" t="n">
-        <v>143435.9887600742</v>
+        <v>143435.988760074</v>
       </c>
       <c r="M6" t="n">
-        <v>180330.8090776399</v>
+        <v>180330.8090776401</v>
       </c>
       <c r="N6" t="n">
         <v>234785.0299809873</v>
@@ -26561,7 +26561,7 @@
         <v>249505.898415269</v>
       </c>
       <c r="P6" t="n">
-        <v>249505.8984152688</v>
+        <v>249505.898415269</v>
       </c>
     </row>
   </sheetData>
@@ -26701,28 +26701,28 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="J2" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="K2" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964061</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964065</v>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>91.59216845020347</v>
+        <v>91.59216845020362</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>341.8733101690332</v>
+        <v>341.8733101690334</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26823,13 +26823,13 @@
         <v>951.8714581513751</v>
       </c>
       <c r="N4" t="n">
-        <v>951.8714581513752</v>
+        <v>951.8714581513751</v>
       </c>
       <c r="O4" t="n">
-        <v>951.8714581513749</v>
+        <v>951.8714581513751</v>
       </c>
       <c r="P4" t="n">
-        <v>951.8714581513749</v>
+        <v>951.8714581513751</v>
       </c>
     </row>
   </sheetData>
@@ -26917,16 +26917,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>18.4010855428523</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>49.73080458678834</v>
+        <v>49.73080458678832</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285229</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>56.57090773107813</v>
+        <v>56.57090773107832</v>
       </c>
       <c r="D3" t="n">
-        <v>286.1514957668832</v>
+        <v>286.151495766883</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>65.71679646667769</v>
+        <v>65.71679646667798</v>
       </c>
       <c r="D4" t="n">
-        <v>332.4139625855224</v>
+        <v>332.4139625855222</v>
       </c>
       <c r="E4" t="n">
         <v>540.9263704990175</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>65.71679646667769</v>
+        <v>65.71679646667798</v>
       </c>
       <c r="L4" t="n">
-        <v>332.4139625855224</v>
+        <v>332.4139625855222</v>
       </c>
       <c r="M4" t="n">
         <v>277.5841853968195</v>
@@ -27160,10 +27160,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18.4010855428523</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>65.71679646667769</v>
+        <v>65.71679646667798</v>
       </c>
       <c r="L4" t="n">
-        <v>332.4139625855224</v>
+        <v>332.4139625855222</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990175</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>89.11637806865207</v>
+        <v>89.11637806865212</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699064</v>
       </c>
       <c r="F2" t="n">
-        <v>130.719532039356</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>377.7351317846827</v>
+        <v>248.716227100566</v>
       </c>
       <c r="H2" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
         <v>222.4795457699687</v>
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.18791615926989</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>2.896557125437226</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27476,7 +27476,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,22 +27506,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27561,7 +27561,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>14.932250645712</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27594,7 +27594,7 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>77.00644937595015</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>43.45345940421689</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>335.7038742961063</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>196.2804842470834</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>200.6294905367619</v>
       </c>
       <c r="T5" t="n">
-        <v>179.3677178729634</v>
+        <v>221.484011504269</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3161961300435</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>238.5518687818402</v>
       </c>
       <c r="W5" t="n">
-        <v>7.367658548379836</v>
+        <v>7.367658548379609</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>27.85779050943563</v>
       </c>
       <c r="Y5" t="n">
-        <v>44.36462848702041</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>66.09607228072677</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27713,7 +27713,7 @@
         <v>110.3327465485026</v>
       </c>
       <c r="I6" t="n">
-        <v>82.61362792373491</v>
+        <v>82.6136279237349</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>87.92595927923671</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>168.023804751134</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.3706418758996</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9284209250621</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>159.1560195906468</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>81.13968623262919</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.8258131530567</v>
@@ -27795,10 +27795,10 @@
         <v>150.4834766775325</v>
       </c>
       <c r="J7" t="n">
-        <v>81.68192939475094</v>
+        <v>81.68192939475091</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>3.0801817800861</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>72.33162581571366</v>
+        <v>72.33162581571364</v>
       </c>
       <c r="R7" t="n">
         <v>169.866918177912</v>
@@ -27828,7 +27828,7 @@
         <v>227.2398792779275</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3100202907417</v>
+        <v>39.11649653841602</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>19.97794254641988</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>219.7515892305369</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>80.62305893728453</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>113.4458150105467</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-8.682195192673605e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="C25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="D25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="E25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="F25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="G25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="H25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="I25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="J25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="K25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="L25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="M25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="N25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="O25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="P25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="R25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="S25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="T25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="U25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="V25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="W25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="X25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="Y25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="C28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="D28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="E28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="F28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="G28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="H28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="I28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="J28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="K28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="L28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="M28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="N28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="O28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="P28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="R28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="S28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="T28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="U28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="V28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="W28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="X28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="Y28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="C31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="D31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="E31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="F31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="G31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="H31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="I31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="J31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="K31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="L31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="M31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="N31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="O31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="P31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="R31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="S31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="T31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="U31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="V31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="W31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="X31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="Y31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285234</v>
       </c>
     </row>
     <row r="32">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964182</v>
       </c>
       <c r="W35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964213</v>
       </c>
       <c r="V38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y38" t="n">
-        <v>68.13189012964102</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W41" t="n">
-        <v>68.13189012964267</v>
+        <v>68.13189012964136</v>
       </c>
       <c r="X41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1407889878155792</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H2" t="n">
-        <v>1.441855221466301</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760121</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884599</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L2" t="n">
-        <v>22.21755819470703</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M2" t="n">
-        <v>24.72131435677233</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840335</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081218</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411507</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796964</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870382</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847513</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626981</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132621</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H3" t="n">
-        <v>0.727517133052019</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727679</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779992</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335885</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358774</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M3" t="n">
-        <v>19.08658709192331</v>
+        <v>19.08658709192328</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833409</v>
+        <v>19.59175225833406</v>
       </c>
       <c r="O3" t="n">
-        <v>17.9226257568905</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650264</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164379</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263572</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504677</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497753</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008306</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006209</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623707</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I4" t="n">
-        <v>1.899185745227322</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J4" t="n">
-        <v>4.46492368217439</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170849</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894687</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948822</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394054</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179689</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938415</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587927</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R4" t="n">
-        <v>2.839592713390064</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025627</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457197</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0034447141690943</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.368209722412878</v>
+        <v>0.3682097224128786</v>
       </c>
       <c r="H5" t="n">
-        <v>3.770927819660888</v>
+        <v>3.770927819660894</v>
       </c>
       <c r="I5" t="n">
-        <v>14.19540532332249</v>
+        <v>14.19540532332251</v>
       </c>
       <c r="J5" t="n">
-        <v>31.25133992764003</v>
+        <v>31.25133992764008</v>
       </c>
       <c r="K5" t="n">
-        <v>46.83765747737717</v>
+        <v>46.83765747737724</v>
       </c>
       <c r="L5" t="n">
-        <v>58.1062557696703</v>
+        <v>58.10625576967038</v>
       </c>
       <c r="M5" t="n">
-        <v>64.65440542063031</v>
+        <v>64.65440542063041</v>
       </c>
       <c r="N5" t="n">
-        <v>65.70058129443591</v>
+        <v>65.70058129443601</v>
       </c>
       <c r="O5" t="n">
-        <v>62.03919586719284</v>
+        <v>62.03919586719294</v>
       </c>
       <c r="P5" t="n">
-        <v>52.94901834512491</v>
+        <v>52.949018345125</v>
       </c>
       <c r="Q5" t="n">
-        <v>39.76250766121371</v>
+        <v>39.76250766121377</v>
       </c>
       <c r="R5" t="n">
-        <v>23.12955397551797</v>
+        <v>23.129553975518</v>
       </c>
       <c r="S5" t="n">
-        <v>8.390579049483467</v>
+        <v>8.390579049483479</v>
       </c>
       <c r="T5" t="n">
-        <v>1.611838059862374</v>
+        <v>1.611838059862377</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02945677779303024</v>
+        <v>0.02945677779303028</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1970095698740226</v>
+        <v>0.1970095698740229</v>
       </c>
       <c r="H6" t="n">
-        <v>1.90269768799385</v>
+        <v>1.902697687993853</v>
       </c>
       <c r="I6" t="n">
-        <v>6.783004927680164</v>
+        <v>6.783004927680174</v>
       </c>
       <c r="J6" t="n">
-        <v>18.61308396779088</v>
+        <v>18.61308396779091</v>
       </c>
       <c r="K6" t="n">
-        <v>31.81272514935039</v>
+        <v>31.81272514935044</v>
       </c>
       <c r="L6" t="n">
-        <v>42.77613489742758</v>
+        <v>42.77613489742765</v>
       </c>
       <c r="M6" t="n">
-        <v>49.91773180536089</v>
+        <v>49.91773180536097</v>
       </c>
       <c r="N6" t="n">
-        <v>51.23890563140204</v>
+        <v>51.23890563140212</v>
       </c>
       <c r="O6" t="n">
-        <v>46.8735883199829</v>
+        <v>46.87358831998298</v>
       </c>
       <c r="P6" t="n">
-        <v>37.6201870753298</v>
+        <v>37.62018707532987</v>
       </c>
       <c r="Q6" t="n">
-        <v>25.14809877900681</v>
+        <v>25.14809877900685</v>
       </c>
       <c r="R6" t="n">
-        <v>12.23187487340642</v>
+        <v>12.23187487340644</v>
       </c>
       <c r="S6" t="n">
-        <v>3.659366352703882</v>
+        <v>3.659366352703887</v>
       </c>
       <c r="T6" t="n">
-        <v>0.7940868189220468</v>
+        <v>0.794086818922048</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01296115591276465</v>
+        <v>0.01296115591276467</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1651662054020062</v>
+        <v>0.1651662054020065</v>
       </c>
       <c r="H7" t="n">
-        <v>1.468477717119657</v>
+        <v>1.468477717119659</v>
       </c>
       <c r="I7" t="n">
-        <v>4.96699824972579</v>
+        <v>4.966998249725797</v>
       </c>
       <c r="J7" t="n">
-        <v>11.67725072192184</v>
+        <v>11.67725072192186</v>
       </c>
       <c r="K7" t="n">
-        <v>19.18931004579672</v>
+        <v>19.18931004579675</v>
       </c>
       <c r="L7" t="n">
-        <v>24.55571021040373</v>
+        <v>24.55571021040377</v>
       </c>
       <c r="M7" t="n">
-        <v>25.89055345224358</v>
+        <v>25.89055345224362</v>
       </c>
       <c r="N7" t="n">
-        <v>25.27493395938157</v>
+        <v>25.27493395938161</v>
       </c>
       <c r="O7" t="n">
-        <v>23.34549237809449</v>
+        <v>23.34549237809453</v>
       </c>
       <c r="P7" t="n">
-        <v>19.97610178789355</v>
+        <v>19.97610178789358</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.83041743598072</v>
+        <v>13.83041743598075</v>
       </c>
       <c r="R7" t="n">
-        <v>7.426473199257479</v>
+        <v>7.42647319925749</v>
       </c>
       <c r="S7" t="n">
-        <v>2.878396506869508</v>
+        <v>2.878396506869512</v>
       </c>
       <c r="T7" t="n">
-        <v>0.7057101503540265</v>
+        <v>0.7057101503540276</v>
       </c>
       <c r="U7" t="n">
-        <v>0.009009065749200351</v>
+        <v>0.009009065749200365</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503282</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424832</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522136</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>66.72331584343479</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O3" t="n">
-        <v>269.1887005891756</v>
+        <v>74.01440144649911</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821096</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>79.71116244199195</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721082</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M4" t="n">
-        <v>49.48341136478941</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062265</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421936</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831903</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>19.30205057302751</v>
+        <v>19.30205057302756</v>
       </c>
       <c r="K5" t="n">
         <v>150.8932190035614</v>
       </c>
       <c r="L5" t="n">
-        <v>240.0010553501335</v>
+        <v>240.0010553501336</v>
       </c>
       <c r="M5" t="n">
-        <v>283.8217056861901</v>
+        <v>283.8217056861902</v>
       </c>
       <c r="N5" t="n">
-        <v>273.6344421098291</v>
+        <v>273.6344421098293</v>
       </c>
       <c r="O5" t="n">
-        <v>212.7411657082515</v>
+        <v>212.7411657082516</v>
       </c>
       <c r="P5" t="n">
-        <v>143.514730761338</v>
+        <v>143.5147307613381</v>
       </c>
       <c r="Q5" t="n">
-        <v>29.77180844666891</v>
+        <v>29.77180844666896</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>17.86649264153305</v>
       </c>
       <c r="K6" t="n">
-        <v>158.43652318757</v>
+        <v>158.4365231875701</v>
       </c>
       <c r="L6" t="n">
-        <v>275.0621004210126</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>280.1685807091164</v>
+        <v>341.8733101690334</v>
       </c>
       <c r="N6" t="n">
-        <v>341.8733101690332</v>
+        <v>341.8733101690334</v>
       </c>
       <c r="O6" t="n">
-        <v>298.139663152268</v>
+        <v>176.2783807420598</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>222.1085483009368</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>95.24361242883444</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>52.14573547071987</v>
+        <v>52.14573547071991</v>
       </c>
       <c r="M7" t="n">
-        <v>65.47443041408417</v>
+        <v>65.4744304140842</v>
       </c>
       <c r="N7" t="n">
-        <v>69.40710633861016</v>
+        <v>69.40710633861021</v>
       </c>
       <c r="O7" t="n">
-        <v>47.93062029213417</v>
+        <v>47.9306202921342</v>
       </c>
       <c r="P7" t="n">
-        <v>17.25466105278704</v>
+        <v>17.25466105278707</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L12" t="n">
-        <v>429.2814066296117</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35729,13 +35729,13 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>534.360840609957</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>362.6699330377951</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
         <v>676.2260215178377</v>
@@ -35744,7 +35744,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
         <v>713.1546070951472</v>
@@ -35966,22 +35966,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>510.0474576375751</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>331.4334930178478</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36057,7 +36057,7 @@
         <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
         <v>39.22569997187476</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>425.9753597058693</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
@@ -36215,13 +36215,13 @@
         <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>320.696107060979</v>
       </c>
       <c r="Q21" t="n">
         <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
         <v>39.22569997187476</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>345.2951542341712</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>396.1057808238508</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
@@ -36455,10 +36455,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>30.90885570841786</v>
+        <v>30.90885570841784</v>
       </c>
       <c r="K25" t="n">
         <v>170.1035140727629</v>
       </c>
       <c r="L25" t="n">
-        <v>268.6152724227809</v>
+        <v>268.6152724227808</v>
       </c>
       <c r="M25" t="n">
-        <v>292.7109267218249</v>
+        <v>292.7109267218248</v>
       </c>
       <c r="N25" t="n">
-        <v>291.677963348456</v>
+        <v>291.6779633484559</v>
       </c>
       <c r="O25" t="n">
         <v>254.6384370634552</v>
@@ -36534,7 +36534,7 @@
         <v>196.7846861546531</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.62678551472709</v>
+        <v>57.62678551472706</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
@@ -36674,10 +36674,10 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>345.2951542341712</v>
+        <v>415.2379737490004</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36686,16 +36686,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>30.90885570841786</v>
+        <v>30.90885570841783</v>
       </c>
       <c r="K28" t="n">
         <v>170.1035140727629</v>
       </c>
       <c r="L28" t="n">
-        <v>268.6152724227809</v>
+        <v>268.6152724227808</v>
       </c>
       <c r="M28" t="n">
-        <v>292.7109267218249</v>
+        <v>292.7109267218248</v>
       </c>
       <c r="N28" t="n">
-        <v>291.677963348456</v>
+        <v>291.6779633484559</v>
       </c>
       <c r="O28" t="n">
         <v>254.6384370634552</v>
@@ -36771,7 +36771,7 @@
         <v>196.7846861546531</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.62678551472709</v>
+        <v>57.62678551472706</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>451.7807101798181</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>621.6037559756878</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
@@ -36932,7 +36932,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>30.90885570841786</v>
+        <v>30.90885570841787</v>
       </c>
       <c r="K31" t="n">
         <v>170.1035140727629</v>
@@ -37008,7 +37008,7 @@
         <v>196.7846861546531</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.62678551472709</v>
+        <v>57.6267855147271</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221117</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>133.1477786379279</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
@@ -37166,7 +37166,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>102.2814067694342</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>204.5443435591683</v>
       </c>
       <c r="L35" t="n">
-        <v>612.6482621973876</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>355.8161167292792</v>
+        <v>527.9834062069184</v>
       </c>
       <c r="N35" t="n">
-        <v>366.2340059961277</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37324,7 +37324,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>138.1845934903002</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>255.4503488645141</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37403,7 +37403,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>161.661626167781</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37543,19 +37543,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>363.9335993867261</v>
       </c>
       <c r="L38" t="n">
-        <v>612.6482621973876</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>355.8161167292792</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>366.2340059961277</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>332.3544258324018</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
@@ -37634,10 +37634,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>492.1965505854578</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37777,22 +37777,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>102.2814067694342</v>
       </c>
       <c r="K41" t="n">
-        <v>204.5443435591683</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>291.0298521604568</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>786.7057522347851</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>366.2340059961277</v>
       </c>
       <c r="O41" t="n">
-        <v>472.0579717984249</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879392</v>
@@ -37865,19 +37865,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>630.4412169741157</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>406.7164955186337</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37953,7 +37953,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>102.2814067694342</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>204.5443435591683</v>
       </c>
       <c r="L44" t="n">
-        <v>612.6482621973868</v>
+        <v>481.0031505037934</v>
       </c>
       <c r="M44" t="n">
-        <v>355.8161167292792</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>366.2340059961277</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>248.8073173394297</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>537.6668875336993</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504663</v>
@@ -38108,13 +38108,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>212.3531108713965</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
